--- a/medicine/Sexualité et sexologie/Tabous_(film)/Tabous_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Tabous_(film)/Tabous_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tabous (Zohre &amp; Manouchehr), ou simplement Tabous, est un film franco-iranien réalisé par Mitra Farahani, sorti en 2004.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Téhéran est l’endroit où l’on imagine la parole amoureuse indicibile, retenue avant même d’être censurée. Dans ce documentaire cru et poétique bousculant les clichés, hommes et femmes de milieux différents livrent des confessions sensuelles, déprimées, heureuses ou pétries d’hypocrisie. Ils lèvent ainsi le voile sur une société tiraillée entre édits religieux, poids de la tradition et désirs d’émancipation. Sous un angle intime, un témoignage inédit de la profonde fracture divisant l’Iran.
 </t>
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Tabous (Zohre &amp; Manouchehr)
 Réalisation : Mitra Farahani
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Coralie Revel : Zohre
 Sophian Benrezzak : Manouchehr</t>
